--- a/input/general/Population_historical_NUTS2_Info.xlsx
+++ b/input/general/Population_historical_NUTS2_Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67A5C3C0-18A8-4DC0-AEF0-D5D807D1A017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABE3D4D-8105-49A1-B1FC-5D22843372A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="600" windowWidth="16590" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -25,28 +25,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Population on 1 January by age, sex and NUTS 2 region [DEMO_R_D2JAN]</t>
   </si>
   <si>
     <t>Source:</t>
+  </si>
+  <si>
+    <t>Unit:</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>Eurostat</t>
+  </si>
+  <si>
+    <t>persons</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -74,9 +78,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -357,23 +360,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/input/general/Population_historical_NUTS2_Info.xlsx
+++ b/input/general/Population_historical_NUTS2_Info.xlsx
@@ -1,34 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekte\endemo\input\general\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABE3D4D-8105-49A1-B1FC-5D22843372A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DE621C-BF7B-483C-A3B8-50EFD99C62FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="600" windowWidth="16590" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32370" yWindow="1410" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Population on 1 January by age, sex and NUTS 2 region [DEMO_R_D2JAN]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Source:</t>
   </si>
@@ -43,19 +51,88 @@
   </si>
   <si>
     <t>persons</t>
+  </si>
+  <si>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/demo_r_d2jan/default/table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Population on 1 January by age, sex and NUTS 2 region </t>
+  </si>
+  <si>
+    <t>[DEMO_R_D2JAN]</t>
+  </si>
+  <si>
+    <t>acessed</t>
+  </si>
+  <si>
+    <t>29.09.2023</t>
+  </si>
+  <si>
+    <t>last update</t>
+  </si>
+  <si>
+    <t>Unit of measure [UNIT]</t>
+  </si>
+  <si>
+    <t>Number [NR]</t>
+  </si>
+  <si>
+    <t>Sex [SEX]</t>
+  </si>
+  <si>
+    <t>Total [T]</t>
+  </si>
+  <si>
+    <t>Age class [AGE]</t>
+  </si>
+  <si>
+    <t>Total [TOTAL]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>Bosnia</t>
+  </si>
+  <si>
+    <t>World Data Bank, see Popular Indicators: Population total</t>
+  </si>
+  <si>
+    <t>https://databank.worldbank.org/source/population-estimates-and-projections</t>
+  </si>
+  <si>
+    <t>Exportierte Daten</t>
+  </si>
+  <si>
+    <t>16.08.2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd\.mm\.yy"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,13 +152,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -360,38 +445,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45197.958333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{0C1A0803-72EC-40C1-9451-D77049580F52}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{D64D2FD9-191D-4F87-86AD-E094D5BC0418}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>